--- a/ky/downloads/data-excel/3.3.3.xlsx
+++ b/ky/downloads/data-excel/3.3.3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="37">
   <si>
     <t>Кыргызская Республика</t>
   </si>
@@ -684,19 +684,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="35.85546875" customWidth="1"/>
+    <col min="1" max="3" width="33.42578125" customWidth="1"/>
     <col min="4" max="4" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -718,7 +716,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -734,7 +732,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
@@ -792,8 +790,11 @@
       <c r="S3" s="23">
         <v>2022</v>
       </c>
+      <c r="T3" s="23">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
@@ -851,8 +852,11 @@
       <c r="S4" s="33">
         <v>0</v>
       </c>
+      <c r="T4" s="33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>15</v>
       </c>
@@ -908,8 +912,11 @@
       <c r="S5" s="27" t="s">
         <v>1</v>
       </c>
+      <c r="T5" s="27" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>17</v>
       </c>
@@ -965,8 +972,11 @@
       <c r="S6" s="27" t="s">
         <v>1</v>
       </c>
+      <c r="T6" s="27" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>18</v>
       </c>
@@ -1022,8 +1032,11 @@
       <c r="S7" s="27" t="s">
         <v>1</v>
       </c>
+      <c r="T7" s="27" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>19</v>
       </c>
@@ -1079,8 +1092,11 @@
       <c r="S8" s="27" t="s">
         <v>1</v>
       </c>
+      <c r="T8" s="27" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>21</v>
       </c>
@@ -1136,8 +1152,11 @@
       <c r="S9" s="27" t="s">
         <v>1</v>
       </c>
+      <c r="T9" s="27" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>23</v>
       </c>
@@ -1193,8 +1212,11 @@
       <c r="S10" s="27" t="s">
         <v>1</v>
       </c>
+      <c r="T10" s="27" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>25</v>
       </c>
@@ -1250,8 +1272,11 @@
       <c r="S11" s="27">
         <v>0</v>
       </c>
+      <c r="T11" s="27" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>27</v>
       </c>
@@ -1309,8 +1334,11 @@
       <c r="S12" s="32">
         <v>1.8411781330637848E-3</v>
       </c>
+      <c r="T12" s="32">
+        <v>1.731197036190674E-3</v>
+      </c>
     </row>
-    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>29</v>
       </c>
@@ -1366,8 +1394,11 @@
       <c r="S13" s="29" t="s">
         <v>1</v>
       </c>
+      <c r="T13" s="29" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
